--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 10 Prova/Prova Pizzaria Resposta.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 10 Prova/Prova Pizzaria Resposta.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 10 - Prova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - 439 - Noite Julho 2017\Aula 10 Prova\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:WWC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G4" s="12">
         <v>0.89549099046215774</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="Q4" s="23">
         <f ca="1">TODAY()</f>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R4" s="24">
         <v>0.90776102405489034</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="F5" s="11">
         <f ca="1">TODAY()</f>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G5" s="12">
         <v>0.98662037037037031</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="Q5" s="23">
         <f t="shared" ref="Q5:Q29" ca="1" si="5">TODAY()</f>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R5" s="24">
         <v>1</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" ref="F6:F29" ca="1" si="8">TODAY()</f>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G6" s="12">
         <v>0.77787336844758515</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="Q6" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R6" s="24">
         <v>0.79650250185568228</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G7" s="12">
         <v>0.87015142142877444</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="Q7" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R7" s="24">
         <v>0.88549577612303076</v>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G8" s="12">
         <v>0.81868249649076974</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="Q8" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R8" s="24">
         <v>0.83072831029599914</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G9" s="12">
         <v>0.95833333333333337</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="Q9" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R9" s="24">
         <v>0.99930555555555556</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G10" s="12">
         <v>0.78804228414637745</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="Q10" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R10" s="24">
         <v>0.80103871310267361</v>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G11" s="12">
         <v>0.78755643724726587</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="Q11" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R11" s="24">
         <v>0.80077951454671004</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G12" s="12">
         <v>0.87768623916726463</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="Q12" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R12" s="24">
         <v>0.89505517678990232</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G13" s="12">
         <v>0.98201056641977913</v>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R13" s="24">
         <v>0.98917947637386827</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G14" s="12">
         <v>0.89904934668956171</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="Q14" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R14" s="24">
         <v>0.91125522413841431</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G15" s="12">
         <v>0.947542336854726</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="Q15" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R15" s="24">
         <v>0.95690548480223481</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G16" s="12">
         <v>0.79296157171019921</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="Q16" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R16" s="24">
         <v>0.80469467110084125</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G17" s="12">
         <v>0.81939161339662592</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="Q17" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R17" s="24">
         <v>0.8340855491847432</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G18" s="12">
         <v>0.75030341756075392</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="Q18" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R18" s="24">
         <v>0.76158561431963645</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G19" s="12">
         <v>0.97228990531532211</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="Q19" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R19" s="24">
         <v>0.9939853582786804</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G20" s="12">
         <v>0.80797685161394928</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="Q20" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R20" s="24">
         <v>0.81253158104032031</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G21" s="12">
         <v>0.95407588695286316</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="Q21" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R21" s="24">
         <v>0.96355489792467475</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G22" s="12">
         <v>0.86498053943568642</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="Q22" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R22" s="24">
         <v>0.87527305417561962</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G23" s="12">
         <v>0.91899452978333018</v>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="Q23" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R23" s="24">
         <v>0.94139052515744992</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G24" s="12">
         <v>0.85801874475077899</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="Q24" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R24" s="24">
         <v>0.87134492007125286</v>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G25" s="12">
         <v>0.7502942586910748</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="Q25" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R25" s="24">
         <v>0.75917639833863271</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G26" s="12">
         <v>0.93499422710018942</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="Q26" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R26" s="24">
         <v>0.94127416324211888</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G27" s="12">
         <v>0.81742898024430055</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="Q27" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R27" s="24">
         <v>0.823161929607373</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G28" s="12">
         <v>0.76970257681309739</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="Q28" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R28" s="24">
         <v>0.78136285758623625</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="G29" s="12">
         <v>0.85356623188339742</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="Q29" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42917</v>
+        <v>42943</v>
       </c>
       <c r="R29" s="24">
         <v>0.86595061132583795</v>

--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 10 Prova/Prova Pizzaria Resposta.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 10 Prova/Prova Pizzaria Resposta.xlsx
@@ -689,7 +689,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDF9F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -1014,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:WWC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2160,7 @@
       </c>
       <c r="F4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G4" s="12">
         <v>0.89549099046215774</v>
@@ -2177,7 +2196,7 @@
       </c>
       <c r="Q4" s="23">
         <f ca="1">TODAY()</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R4" s="24">
         <v>0.90776102405489034</v>
@@ -2204,7 +2223,7 @@
       </c>
       <c r="F5" s="11">
         <f ca="1">TODAY()</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G5" s="12">
         <v>0.98662037037037031</v>
@@ -2240,7 +2259,7 @@
       </c>
       <c r="Q5" s="23">
         <f t="shared" ref="Q5:Q29" ca="1" si="5">TODAY()</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R5" s="24">
         <v>1</v>
@@ -2267,7 +2286,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" ref="F6:F29" ca="1" si="8">TODAY()</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G6" s="12">
         <v>0.77787336844758515</v>
@@ -2301,7 +2320,7 @@
       </c>
       <c r="Q6" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R6" s="24">
         <v>0.79650250185568228</v>
@@ -2328,7 +2347,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G7" s="12">
         <v>0.87015142142877444</v>
@@ -2362,7 +2381,7 @@
       </c>
       <c r="Q7" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R7" s="24">
         <v>0.88549577612303076</v>
@@ -2389,7 +2408,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G8" s="12">
         <v>0.81868249649076974</v>
@@ -2425,7 +2444,7 @@
       </c>
       <c r="Q8" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R8" s="24">
         <v>0.83072831029599914</v>
@@ -2452,7 +2471,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G9" s="12">
         <v>0.95833333333333337</v>
@@ -2486,7 +2505,7 @@
       </c>
       <c r="Q9" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R9" s="24">
         <v>0.99930555555555556</v>
@@ -2513,7 +2532,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G10" s="12">
         <v>0.78804228414637745</v>
@@ -2549,7 +2568,7 @@
       </c>
       <c r="Q10" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R10" s="24">
         <v>0.80103871310267361</v>
@@ -2576,7 +2595,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G11" s="12">
         <v>0.78755643724726587</v>
@@ -2612,7 +2631,7 @@
       </c>
       <c r="Q11" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R11" s="24">
         <v>0.80077951454671004</v>
@@ -2637,7 +2656,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G12" s="12">
         <v>0.87768623916726463</v>
@@ -2671,7 +2690,7 @@
       </c>
       <c r="Q12" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R12" s="24">
         <v>0.89505517678990232</v>
@@ -2698,7 +2717,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G13" s="12">
         <v>0.98201056641977913</v>
@@ -2734,7 +2753,7 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R13" s="24">
         <v>0.98917947637386827</v>
@@ -2761,7 +2780,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G14" s="12">
         <v>0.89904934668956171</v>
@@ -2795,7 +2814,7 @@
       </c>
       <c r="Q14" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R14" s="24">
         <v>0.91125522413841431</v>
@@ -2822,7 +2841,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G15" s="12">
         <v>0.947542336854726</v>
@@ -2856,7 +2875,7 @@
       </c>
       <c r="Q15" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R15" s="24">
         <v>0.95690548480223481</v>
@@ -2883,7 +2902,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G16" s="12">
         <v>0.79296157171019921</v>
@@ -2919,7 +2938,7 @@
       </c>
       <c r="Q16" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R16" s="24">
         <v>0.80469467110084125</v>
@@ -2940,7 +2959,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G17" s="12">
         <v>0.81939161339662592</v>
@@ -2974,7 +2993,7 @@
       </c>
       <c r="Q17" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R17" s="24">
         <v>0.8340855491847432</v>
@@ -2999,7 +3018,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G18" s="12">
         <v>0.75030341756075392</v>
@@ -3035,7 +3054,7 @@
       </c>
       <c r="Q18" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R18" s="24">
         <v>0.76158561431963645</v>
@@ -3062,7 +3081,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G19" s="12">
         <v>0.97228990531532211</v>
@@ -3096,7 +3115,7 @@
       </c>
       <c r="Q19" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R19" s="24">
         <v>0.9939853582786804</v>
@@ -3123,7 +3142,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G20" s="12">
         <v>0.80797685161394928</v>
@@ -3157,7 +3176,7 @@
       </c>
       <c r="Q20" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R20" s="24">
         <v>0.81253158104032031</v>
@@ -3184,7 +3203,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G21" s="12">
         <v>0.95407588695286316</v>
@@ -3220,7 +3239,7 @@
       </c>
       <c r="Q21" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R21" s="24">
         <v>0.96355489792467475</v>
@@ -3241,7 +3260,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G22" s="12">
         <v>0.86498053943568642</v>
@@ -3275,7 +3294,7 @@
       </c>
       <c r="Q22" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R22" s="24">
         <v>0.87527305417561962</v>
@@ -3300,7 +3319,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G23" s="12">
         <v>0.91899452978333018</v>
@@ -3334,7 +3353,7 @@
       </c>
       <c r="Q23" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R23" s="24">
         <v>0.94139052515744992</v>
@@ -3359,7 +3378,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G24" s="12">
         <v>0.85801874475077899</v>
@@ -3395,7 +3414,7 @@
       </c>
       <c r="Q24" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R24" s="24">
         <v>0.87134492007125286</v>
@@ -3423,7 +3442,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G25" s="12">
         <v>0.7502942586910748</v>
@@ -3457,7 +3476,7 @@
       </c>
       <c r="Q25" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R25" s="24">
         <v>0.75917639833863271</v>
@@ -3485,7 +3504,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G26" s="12">
         <v>0.93499422710018942</v>
@@ -3521,7 +3540,7 @@
       </c>
       <c r="Q26" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R26" s="24">
         <v>0.94127416324211888</v>
@@ -3549,7 +3568,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G27" s="12">
         <v>0.81742898024430055</v>
@@ -3585,7 +3604,7 @@
       </c>
       <c r="Q27" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R27" s="24">
         <v>0.823161929607373</v>
@@ -3613,7 +3632,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G28" s="12">
         <v>0.76970257681309739</v>
@@ -3649,7 +3668,7 @@
       </c>
       <c r="Q28" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R28" s="24">
         <v>0.78136285758623625</v>
@@ -3677,7 +3696,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="G29" s="12">
         <v>0.85356623188339742</v>
@@ -3713,7 +3732,7 @@
       </c>
       <c r="Q29" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R29" s="24">
         <v>0.86595061132583795</v>
@@ -4071,13 +4090,18 @@
     <mergeCell ref="B24:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:O43 Q4:T43">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula xml:space="preserve"> ISODD(ROW(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:O43 Q4:T43">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula xml:space="preserve"> ISERROR(E4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF($S$4&gt;30,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
